--- a/tabellenliebe/08_feeds_importieren.xlsx
+++ b/tabellenliebe/08_feeds_importieren.xlsx
@@ -14157,735 +14157,764 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""http://news.google.com/?output=atom"")"),"8 people killed in shooting at a FedEx facility in Indianapolis, police say - CNN")</f>
-        <v>8 people killed in shooting at a FedEx facility in Indianapolis, police say - CNN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""http://news.google.com/?output=atom"")"),"Gabby Petito was strangled to death, Wyoming officials say after autopsy - The Guardian")</f>
+        <v>Gabby Petito was strangled to death, Wyoming officials say after autopsy - The Guardian</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C1" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiUWh0dHBzOi8vd3d3LmNubi5jb20vMjAyMS8wNC8xNi91cy9pbmRpYW5hcG9saXMtc2hvb3RpbmctZmVkZXgtZmFjaWxpdHkvaW5kZXguaHRtbNIBVWh0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjEvMDQvMTYvdXMvaW5kaWFuYXBvbGlzLXNob290aW5nLWZlZGV4LWZhY2l"&amp;"saXR5L2luZGV4Lmh0bWw?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiUWh0dHBzOi8vd3d3LmNubi5jb20vMjAyMS8wNC8xNi91cy9pbmRpYW5hcG9saXMtc2hvb3RpbmctZmVkZXgtZmFjaWxpdHkvaW5kZXguaHRtbNIBVWh0dHBzOi8vYW1wLmNubi5jb20vY25uLzIwMjEvMDQvMTYvdXMvaW5kaWFuYXBvbGlzLXNob290aW5nLWZlZGV4LWZhY2lsaXR5L2luZGV4Lmh0bWw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMia2h0dHBzOi8vd3d3LnRoZWd1YXJkaWFuLmNvbS91cy1uZXdzLzIwMjEvb2N0LzEyL2dhYmJ5LXBldGl0by1hdXRvcHN5LXJlc3VsdHMtd3lvbWluZy1icmlhbi1sYXVuZHJpZS1mbG9yaWRh0gFraHR0cHM6Ly9hbXAudGhlZ3VhcmRpYW4uY29tL3VzLW5ld3MvMjAyMS9vY3Q"&amp;"vMTIvZ2FiYnktcGV0aXRvLWF1dG9wc3ktcmVzdWx0cy13eW9taW5nLWJyaWFuLWxhdW5kcmllLWZsb3JpZGE?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMia2h0dHBzOi8vd3d3LnRoZWd1YXJkaWFuLmNvbS91cy1uZXdzLzIwMjEvb2N0LzEyL2dhYmJ5LXBldGl0by1hdXRvcHN5LXJlc3VsdHMtd3lvbWluZy1icmlhbi1sYXVuZHJpZS1mbG9yaWRh0gFraHR0cHM6Ly9hbXAudGhlZ3VhcmRpYW4uY29tL3VzLW5ld3MvMjAyMS9vY3QvMTIvZ2FiYnktcGV0aXRvLWF1dG9wc3ktcmVzdWx0cy13eW9taW5nLWJyaWFuLWxhdW5kcmllLWZsb3JpZGE?oc=5</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. 8 people killed in shooting at a FedEx facility in Indianapolis, 
-   police say  CNN 
-   2. Police trying to identify gunman, motive in FedEx shooting  Yahoo News
-   3. Police: 8 dead in shooting at FedEx facility in Indianapolis  KPRC 2 
-   Cl"&amp;"ick2Houston
-   4. 'I don't know if he's OK': Families wait to hear of loved ones who 
-   work at Indy FedEx facility  IndyStar
-   5. 8 killed in mass shooting at Indianapolis FedEx facility, suspect dead
-     GMA
+   1. Gabby Petito was strangled to death, Wyoming officials say after 
+   autopsy  The Guardian
+   2. Gabby Petito Autopsy Ruling: Teton County Press Conference on #WFLANow
+     WFLA News Channel 8
+   3. Officials to discuss Gabby Petito's autopsy f"&amp;"indings Tuesday  WFLA 
+   News Channel 8
+   4. Gabby Petito autopsy: Wyoming coroner to give update Tuesday  Fox News
+   5. Memorial for Gabby Petito being taken down  FOX 4 Now
    6. *View Full Coverage on Google News*
-"&amp;"
 ")</f>
         <v>
-   1. 8 people killed in shooting at a FedEx facility in Indianapolis, 
-   police say  CNN 
-   2. Police trying to identify gunman, motive in FedEx shooting  Yahoo News
-   3. Police: 8 dead in shooting at FedEx facility in Indianapolis  KPRC 2 
-   Click2Houston
-   4. 'I don't know if he's OK': Families wait to hear of loved ones who 
-   work at Indy FedEx facility  IndyStar
-   5. 8 killed in mass shooting at Indianapolis FedEx facility, suspect dead
-     GMA
+   1. Gabby Petito was strangled to death, Wyoming officials say after 
+   autopsy  The Guardian
+   2. Gabby Petito Autopsy Ruling: Teton County Press Conference on #WFLANow
+     WFLA News Channel 8
+   3. Officials to discuss Gabby Petito's autopsy findings Tuesday  WFLA 
+   News Channel 8
+   4. Gabby Petito autopsy: Wyoming coroner to give update Tuesday  Fox News
+   5. Memorial for Gabby Petito being taken down  FOX 4 Now
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"U.S. sanctions on Russia ‘mostly symbolic’ and will not trouble Moscow, economists say - CNBC")</f>
-        <v>U.S. sanctions on Russia ‘mostly symbolic’ and will not trouble Moscow, economists say - CNBC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pelosi says proposal to take debt ceiling authority away from Congress 'has merit' | TheHill - The Hill")</f>
+        <v>Pelosi says proposal to take debt ceiling authority away from Congress 'has merit' | TheHill - The Hill</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiZGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMDQvMTYvZWNvbm9taXN0cy11cy1zYW5jdGlvbnMtbW9zdGx5LXN5bWJvbGljLWFuZC13b250LXRyb3VibGUtcnVzc2lhLmh0bWzSAWhodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyMS8wNC8xNi9lY29ub21pc3RzLXVzLXN"&amp;"hbmN0aW9ucy1tb3N0bHktc3ltYm9saWMtYW5kLXdvbnQtdHJvdWJsZS1ydXNzaWEuaHRtbA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiZGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMDQvMTYvZWNvbm9taXN0cy11cy1zYW5jdGlvbnMtbW9zdGx5LXN5bWJvbGljLWFuZC13b250LXRyb3VibGUtcnVzc2lhLmh0bWzSAWhodHRwczovL3d3dy5jbmJjLmNvbS9hbXAvMjAyMS8wNC8xNi9lY29ub21pc3RzLXVzLXNhbmN0aW9ucy1tb3N0bHktc3ltYm9saWMtYW5kLXdvbnQtdHJvdWJsZS1ydXNzaWEuaHRtbA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMidGh0dHBzOi8vdGhlaGlsbC5jb20vaG9tZW5ld3MvaG91c2UvNTc2MzU0LXBlbG9zaS1zYXlzLXByb3Bvc2FsLXRvLXRha2UtZGVidC1jZWlsaW5nLWF1dGhvcml0eS1hd2F5LWZyb20tY29uZ3Jlc3MtaGFz0gF4aHR0cHM6Ly90aGVoaWxsLmNvbS9ob21lbmV3cy9ob3VzZS8"&amp;"1NzYzNTQtcGVsb3NpLXNheXMtcHJvcG9zYWwtdG8tdGFrZS1kZWJ0LWNlaWxpbmctYXV0aG9yaXR5LWF3YXktZnJvbS1jb25ncmVzcy1oYXM_YW1w?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMidGh0dHBzOi8vdGhlaGlsbC5jb20vaG9tZW5ld3MvaG91c2UvNTc2MzU0LXBlbG9zaS1zYXlzLXByb3Bvc2FsLXRvLXRha2UtZGVidC1jZWlsaW5nLWF1dGhvcml0eS1hd2F5LWZyb20tY29uZ3Jlc3MtaGFz0gF4aHR0cHM6Ly90aGVoaWxsLmNvbS9ob21lbmV3cy9ob3VzZS81NzYzNTQtcGVsb3NpLXNheXMtcHJvcG9zYWwtdG8tdGFrZS1kZWJ0LWNlaWxpbmctYXV0aG9yaXR5LWF3YXktZnJvbS1jb25ncmVzcy1oYXM_YW1w?oc=5</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. U.S. sanctions on Russia ‘mostly symbolic’ and will not trouble 
-   Moscow, economists say  CNBC
-   2. U.S. Imposes Stiff Sanctions on Russia, Blaming It for Major Hacking 
-   Operation  The New York Times
-   3. Biden imposes tough new sanction"&amp;"s on Russia  CBS News
-   4. Biden sanctions Russia — but pulls punches. Putin will not be 
-   deterred.  The Washington Post
-   5. Biden's Russia sanctions are a good step. Here's what else we should 
-   do to stand up to Putin.  NBC News
-   6. *View Full"&amp;" Coverage on Google News*
+   1. Pelosi says proposal to take debt ceiling authority away from 
+   Congress 'has merit' | TheHill  The Hill
+   2. Congress off the rails? Lawmakers barrel toward fall fights  
+   WOODTV.com
+   3. Cameron Smith: Congress frets about the ceiling w"&amp;"hile America’s 
+   fiscal house burns  AL.com
+   4. Opinion | The Temporary Truce on the Debt Ceiling  The New York Times
+   5. Democrats are ignoring the only thing that matters | TheHill  The Hill
+   6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. U.S. sanctions on Russia ‘mostly symbolic’ and will not trouble 
-   Moscow, economists say  CNBC
-   2. U.S. Imposes Stiff Sanctions on Russia, Blaming It for Major Hacking 
-   Operation  The New York Times
-   3. Biden imposes tough new sanctions on Russia  CBS News
-   4. Biden sanctions Russia — but pulls punches. Putin will not be 
-   deterred.  The Washington Post
-   5. Biden's Russia sanctions are a good step. Here's what else we should 
-   do to stand up to Putin.  NBC News
+   1. Pelosi says proposal to take debt ceiling authority away from 
+   Congress 'has merit' | TheHill  The Hill
+   2. Congress off the rails? Lawmakers barrel toward fall fights  
+   WOODTV.com
+   3. Cameron Smith: Congress frets about the ceiling while America’s 
+   fiscal house burns  AL.com
+   4. Opinion | The Temporary Truce on the Debt Ceiling  The New York Times
+   5. Democrats are ignoring the only thing that matters | TheHill  The Hill
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"In Cuba, Raul Castro steps down as head of the Communist Party. - NBC News")</f>
-        <v>In Cuba, Raul Castro steps down as head of the Communist Party. - NBC News</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Small plane crashes into California neighborhood, killing 2 - CBS News")</f>
+        <v>Small plane crashes into California neighborhood, killing 2 - CBS News</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiV2h0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvbGF0aW5vL2N1YmEtcmF1bC1jYXN0cm8tc3RlcHMtaGVhZC1jb21tdW5pc3QtcGFydHktcmNuYTY4OdIBKGh0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvYW1wL3JjbmE2ODk?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiV2h0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvbGF0aW5vL2N1YmEtcmF1bC1jYXN0cm8tc3RlcHMtaGVhZC1jb21tdW5pc3QtcGFydHktcmNuYTY4OdIBKGh0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvYW1wL3JjbmE2ODk?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiO2h0dHBzOi8vd3d3LmNic25ld3MuY29tL25ld3MvcGxhbmUtY3Jhc2gtY2FsaWZvcm5pYS1zYW50ZWUv0gE_aHR0cHM6Ly93d3cuY2JzbmV3cy5jb20vYW1wL25ld3MvcGxhbmUtY3Jhc2gtY2FsaWZvcm5pYS1zYW50ZWUv?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiO2h0dHBzOi8vd3d3LmNic25ld3MuY29tL25ld3MvcGxhbmUtY3Jhc2gtY2FsaWZvcm5pYS1zYW50ZWUv0gE_aHR0cHM6Ly93d3cuY2JzbmV3cy5jb20vYW1wL25ld3MvcGxhbmUtY3Jhc2gtY2FsaWZvcm5pYS1zYW50ZWUv?oc=5</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. In Cuba, Raul Castro steps down as head of the Communist Party.  NBC 
+   1. Small plane crashes into California neighborhood, killing 2  CBS News
+   2. Small plane crashes into UPS truck in California neighborhood | WNT  ABC 
    News
-   2. Cuba's Raul Castro prepares to step down, ending the era of his 
-   famous clan at the country's helm  CNN 
-   3. Cuba's Raul Castro is stepping down as head of"&amp;" its Communist Party  Yahoo 
-   News
-   4. Brave Afro-Cubans leading unprecedented protests in Cuba need BLM 
-   support | Opinion  Miami Herald
-   5. Sixty years after Bay of Pigs, Biden can find opportunity in Cuba 
-   after decades of policy failures |"&amp;"...  Miami Herald
+   3. Bare-footed neighbor helps woman escape burning home after plane 
+   crash, vide"&amp;"o shows  KFOR Oklahoma City
+   4. Plane in San Diego County crash was warned it was flying low  Los 
+   Angeles Times
+   5. Video shows moment of Santee plane crash  ABC 10 News
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. In Cuba, Raul Castro steps down as head of the Communist Party.  NBC 
+   1. Small plane crashes into California neighborhood, killing 2  CBS News
+   2. Small plane crashes into UPS truck in California neighborhood | WNT  ABC 
    News
-   2. Cuba's Raul Castro prepares to step down, ending the era of his 
-   famous clan at the country's helm  CNN 
-   3. Cuba's Raul Castro is stepping down as head of its Communist Party  Yahoo 
-   News
-   4. Brave Afro-Cubans leading unprecedented protests in Cuba need BLM 
-   support | Opinion  Miami Herald
-   5. Sixty years after Bay of Pigs, Biden can find opportunity in Cuba 
-   after decades of policy failures |...  Miami Herald
+   3. Bare-footed neighbor helps woman escape burning home after plane 
+   crash, video shows  KFOR Oklahoma City
+   4. Plane in San Diego County crash was warned it was flying low  Los 
+   Angeles Times
+   5. Video shows moment of Santee plane crash  ABC 10 News
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"9 Hong Kong Pro-Democracy Activists Sentenced For 2019 Protests - NPR")</f>
-        <v>9 Hong Kong Pro-Democracy Activists Sentenced For 2019 Protests - NPR</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As Floods Ravage China, 13 Die After Bus Falls Off Bridge - The New York Times")</f>
+        <v>As Floods Ravage China, 13 Die After Bus Falls Off Bridge - The New York Times</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiaGh0dHBzOi8vd3d3Lm5wci5vcmcvMjAyMS8wNC8xNi85ODc5NTk0MjcvOS1ob25nLWtvbmctcHJvLWRlbW9jcmFjeS1hY3RpdmlzdHMtc2VudGVuY2VkLWZvci0yMDE5LXByb3Rlc3Rz0gEA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiaGh0dHBzOi8vd3d3Lm5wci5vcmcvMjAyMS8wNC8xNi85ODc5NTk0MjcvOS1ob25nLWtvbmctcHJvLWRlbW9jcmFjeS1hY3RpdmlzdHMtc2VudGVuY2VkLWZvci0yMDE5LXByb3Rlc3Rz0gEA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiSmh0dHBzOi8vd3d3Lm55dGltZXMuY29tLzIwMjEvMTAvMTIvd29ybGQvYXNpYS9jaGluYS1idXMtZmxvb2RpbmctZGVhZC5odG1s0gFOaHR0cHM6Ly93d3cubnl0aW1lcy5jb20vMjAyMS8xMC8xMi93b3JsZC9hc2lhL2NoaW5hLWJ1cy1mbG9vZGluZy1kZWFkLmFtcC5odG1"&amp;"s?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiSmh0dHBzOi8vd3d3Lm55dGltZXMuY29tLzIwMjEvMTAvMTIvd29ybGQvYXNpYS9jaGluYS1idXMtZmxvb2RpbmctZGVhZC5odG1s0gFOaHR0cHM6Ly93d3cubnl0aW1lcy5jb20vMjAyMS8xMC8xMi93b3JsZC9hc2lhL2NoaW5hLWJ1cy1mbG9vZGluZy1kZWFkLmFtcC5odG1s?oc=5</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. 9 Hong Kong Pro-Democracy Activists Sentenced For 2019 Protests  NPR
-   2. Hong Kong court jails Jimmy Lai and other prominent activists for 8 
-   to 18 months over 2019 protest  CNN 
-   3. Hong Kong democracy leaders given jail terms amid Beij"&amp;"ing crackdown  NBC 
+   1. As Floods Ravage China, 13 Die After Bus Falls Off Bridge  The New 
+   York Times
+   2. Millions hit by severe flooding in China | The World  ABC News 
+   (Australia)
+   3. At least 15 dead after heavy rainfall and flooding in northern China  
+"&amp;"   CNN
+   4. Flooding in China kills at least 28, including 13 in bus plunge  NBC 
    News
-   4. Hong Kong: Jimmy Lai sentenced to 14 months for pro-democracy protests
-     BBC News
-   5. Hong Kong pro-democracy activists are handed suspended sentences  Guardian 
-   News
+   5. China floods: Coal price hits fresh high as mines shut  BBC News
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. 9 Hong Kong Pro-Democracy Activists Sentenced For 2019 Protests  NPR
-   2. Hong Kong court jails Jimmy Lai and other prominent activists for 8 
-   to 18 months over 2019 protest  CNN 
-   3. Hong Kong democracy leaders given jail terms amid Beijing crackdown  NBC 
+   1. As Floods Ravage China, 13 Die After Bus Falls Off Bridge  The New 
+   York Times
+   2. Millions hit by severe flooding in China | The World  ABC News 
+   (Australia)
+   3. At least 15 dead after heavy rainfall and flooding in northern China  
+   CNN
+   4. Flooding in China kills at least 28, including 13 in bus plunge  NBC 
    News
-   4. Hong Kong: Jimmy Lai sentenced to 14 months for pro-democracy protests
-     BBC News
-   5. Hong Kong pro-democracy activists are handed suspended sentences  Guardian 
-   News
+   5. China floods: Coal price hits fresh high as mines shut  BBC News
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"San Antonio airport on lockdown after officer-involved shooting - New York Post")</f>
-        <v>San Antonio airport on lockdown after officer-involved shooting - New York Post</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Afghanistan crisis: G20 leaders pledge to avert economic catastrophe - BBC News")</f>
+        <v>Afghanistan crisis: G20 leaders pledge to avert economic catastrophe - BBC News</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiXmh0dHBzOi8vbnlwb3N0LmNvbS8yMDIxLzA0LzE1L3Nhbi1hbnRvbmlvLWFpcnBvcnQtb24tbG9ja2Rvd24tYWZ0ZXItb2ZmaWNlci1pbnZvbHZlZC1zaG9vdGluZy_SAWJodHRwczovL255cG9zdC5jb20vMjAyMS8wNC8xNS9zYW4tYW50b25pby1haXJwb3J0LW9uLWxvY2t"&amp;"kb3duLWFmdGVyLW9mZmljZXItaW52b2x2ZWQtc2hvb3RpbmcvYW1wLw?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiXmh0dHBzOi8vbnlwb3N0LmNvbS8yMDIxLzA0LzE1L3Nhbi1hbnRvbmlvLWFpcnBvcnQtb24tbG9ja2Rvd24tYWZ0ZXItb2ZmaWNlci1pbnZvbHZlZC1zaG9vdGluZy_SAWJodHRwczovL255cG9zdC5jb20vMjAyMS8wNC8xNS9zYW4tYW50b25pby1haXJwb3J0LW9uLWxvY2tkb3duLWFmdGVyLW9mZmljZXItaW52b2x2ZWQtc2hvb3RpbmcvYW1wLw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiLGh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy93b3JsZC1hc2lhLTU4ODg3ODA40gEwaHR0cHM6Ly93d3cuYmJjLmNvbS9uZXdzL3dvcmxkLWFzaWEtNTg4ODc4MDguYW1w?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiLGh0dHBzOi8vd3d3LmJiYy5jb20vbmV3cy93b3JsZC1hc2lhLTU4ODg3ODA40gEwaHR0cHM6Ly93d3cuYmJjLmNvbS9uZXdzL3dvcmxkLWFzaWEtNTg4ODc4MDguYW1w?oc=5</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. San Antonio airport on lockdown after officer-involved shooting  New 
-   York Post 
-   2. San Antonio police shoot, kill gunman at airport terminal  Fox News
-   3. Officer Shoots, Kills San Antonio Airport Gunman At 'Start Of Active 
-   Shooter"&amp;" Situation,' Police Say  CBSDFW
-   4. San Antonio airport on lockdown after shooting involving police  
-   KTRK-TV
-   5. San Antonio Airport shooting suspect dead, lockdown canceled, police 
-   say  CNN 
+   1. Afghanistan crisis: G20 leaders pledge to avert economic catastrophe  BBC 
+   News
+   2. Watch: How PM Modi asked the world to unite in response to 
+   Afghanistan becoming terror hub  Hindustan Times
+   3. Germany Not Yet Prepared To Recognise"&amp;" Taliban: Chancellor Angela 
+   Merkel  NDTV
+   4. G20 leaders agree to involve Taliban in distributing Afghanistan aid  The 
+   Guardian
+   5. Afghanistan shouldn't become source of radicalisation, terror: PM 
+   Modi at G20 Extraordinary Leaders' Summ  "&amp;"Times of India
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. San Antonio airport on lockdown after officer-involved shooting  New 
-   York Post 
-   2. San Antonio police shoot, kill gunman at airport terminal  Fox News
-   3. Officer Shoots, Kills San Antonio Airport Gunman At 'Start Of Active 
-   Shooter Situation,' Police Say  CBSDFW
-   4. San Antonio airport on lockdown after shooting involving police  
-   KTRK-TV
-   5. San Antonio Airport shooting suspect dead, lockdown canceled, police 
-   say  CNN 
+   1. Afghanistan crisis: G20 leaders pledge to avert economic catastrophe  BBC 
+   News
+   2. Watch: How PM Modi asked the world to unite in response to 
+   Afghanistan becoming terror hub  Hindustan Times
+   3. Germany Not Yet Prepared To Recognise Taliban: Chancellor Angela 
+   Merkel  NDTV
+   4. G20 leaders agree to involve Taliban in distributing Afghanistan aid  The 
+   Guardian
+   5. Afghanistan shouldn't become source of radicalisation, terror: PM 
+   Modi at G20 Extraordinary Leaders' Summ  Times of India
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Derek Chauvin takes the Fifth, the defense rests, and closings next in trial of George Floyd's death - CNN")</f>
-        <v>Derek Chauvin takes the Fifth, the defense rests, and closings next in trial of George Floyd's death - CNN</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"House Budget Chair John Yarmuth announces retirement - POLITICO")</f>
+        <v>House Budget Chair John Yarmuth announces retirement - POLITICO</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiUmh0dHBzOi8vd3d3LmNubi5jb20vMjAyMS8wNC8xNi91cy9kZXJlay1jaGF1dmluLXRyaWFsLWdlb3JnZS1mbG95ZC13cmFwL2luZGV4Lmh0bWzSAVZodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDIxLzA0LzE2L3VzL2RlcmVrLWNoYXV2aW4tdHJpYWwtZ2VvcmdlLWZsb3l"&amp;"kLXdyYXAvaW5kZXguaHRtbA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiUmh0dHBzOi8vd3d3LmNubi5jb20vMjAyMS8wNC8xNi91cy9kZXJlay1jaGF1dmluLXRyaWFsLWdlb3JnZS1mbG95ZC13cmFwL2luZGV4Lmh0bWzSAVZodHRwczovL2FtcC5jbm4uY29tL2Nubi8yMDIxLzA0LzE2L3VzL2RlcmVrLWNoYXV2aW4tdHJpYWwtZ2VvcmdlLWZsb3lkLXdyYXAvaW5kZXguaHRtbA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiZGh0dHBzOi8vd3d3LnBvbGl0aWNvLmNvbS9uZXdzLzIwMjEvMTAvMTIvaG91c2UtYnVkZ2V0LWNoYWlyLWpvaG4teWFybXV0aC1hbm5vdW5jZXMtcmV0aXJlbWVudC01MTU3OTjSAWhodHRwczovL3d3dy5wb2xpdGljby5jb20vYW1wL25ld3MvMjAyMS8xMC8xMi9ob3VzZS1"&amp;"idWRnZXQtY2hhaXItam9obi15YXJtdXRoLWFubm91bmNlcy1yZXRpcmVtZW50LTUxNTc5OA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiZGh0dHBzOi8vd3d3LnBvbGl0aWNvLmNvbS9uZXdzLzIwMjEvMTAvMTIvaG91c2UtYnVkZ2V0LWNoYWlyLWpvaG4teWFybXV0aC1hbm5vdW5jZXMtcmV0aXJlbWVudC01MTU3OTjSAWhodHRwczovL3d3dy5wb2xpdGljby5jb20vYW1wL25ld3MvMjAyMS8xMC8xMi9ob3VzZS1idWRnZXQtY2hhaXItam9obi15YXJtdXRoLWFubm91bmNlcy1yZXRpcmVtZW50LTUxNTc5OA?oc=5</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Derek Chauvin takes the Fifth, the defense rests, and closings next 
-   in trial of George Floyd's death  CNN 
-   2. Chauvin trial defense rests — after smearing George Floyd with false 
-   overdose theory  NBC News
-   3. Chauvin’s despicable d"&amp;"efense: What gave George Floyd the right to die?
-     The Washington Post
-   4. Derek Chauvin Trial, April 15: Chauvin Says He Won’t Testify, Both 
-   Sides Rest Their Case  CBS Minnesota
-   5. Derek Chauvin is on trial for George Floyd's death: Live upda"&amp;"tes  CNN
+   1. House Budget Chair John Yarmuth announces retirement  POLITICO
+   2. House Budget Chair John Yarmuth to retire from Congress | TheHill  The 
+   Hill
+   3. House Budget chairman announces he'll retire at the end of his term  KITV 
+   Honolulu
+  "&amp;" 4. US Rep. John Yarmuth to retire from Congress  WDRB
+   5. John Yarmuth says he's retiring from Congress after this term  
+   POLITICO
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Derek Chauvin takes the Fifth, the defense rests, and closings next 
-   in trial of George Floyd's death  CNN 
-   2. Chauvin trial defense rests — after smearing George Floyd with false 
-   overdose theory  NBC News
-   3. Chauvin’s despicable defense: What gave George Floyd the right to die?
-     The Washington Post
-   4. Derek Chauvin Trial, April 15: Chauvin Says He Won’t Testify, Both 
-   Sides Rest Their Case  CBS Minnesota
-   5. Derek Chauvin is on trial for George Floyd's death: Live updates  CNN
+   1. House Budget Chair John Yarmuth announces retirement  POLITICO
+   2. House Budget Chair John Yarmuth to retire from Congress | TheHill  The 
+   Hill
+   3. House Budget chairman announces he'll retire at the end of his term  KITV 
+   Honolulu
+   4. US Rep. John Yarmuth to retire from Congress  WDRB
+   5. John Yarmuth says he's retiring from Congress after this term  
+   POLITICO
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Simon &amp; Schuster won't distribute book by officer in Breonna Taylor case - NBC News")</f>
-        <v>Simon &amp; Schuster won't distribute book by officer in Breonna Taylor case - NBC News</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Supreme Court signals it will side with Kentucky attorney general in bid to defend abortion law - CNBC")</f>
+        <v>Supreme Court signals it will side with Kentucky attorney general in bid to defend abortion law - CNBC</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMibmh0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvdXMtbmV3cy9zaW1vbi1zY2h1c3Rlci13b24tdC1kaXN0cmlidXRlLWJvb2stb2ZmaWNlci1icmVvbm5hLXRheWxvci1jYXNlLW4xMjY0Mjcx0gEsaHR0cHM6Ly93d3cubmJjbmV3cy5jb20vbmV3cy9hbXAvbmNuYTEyNjQ"&amp;"yNzE?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMibmh0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvdXMtbmV3cy9zaW1vbi1zY2h1c3Rlci13b24tdC1kaXN0cmlidXRlLWJvb2stb2ZmaWNlci1icmVvbm5hLXRheWxvci1jYXNlLW4xMjY0Mjcx0gEsaHR0cHM6Ly93d3cubmJjbmV3cy5jb20vbmV3cy9hbXAvbmNuYTEyNjQyNzE?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMidGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMTAvMTIvc3VwcmVtZS1jb3VydC1zaWduYWxzLWl0LXdpbGwtc2lkZS13aXRoLWtlbnR1Y2t5LWFncy1iaWQtdG8tZGVmZW5kLWFib3J0aW9uLWxhdy5odG1s0gF4aHR0cHM6Ly93d3cuY25iYy5jb20vYW1wLzIwMjEvMTAvMTI"&amp;"vc3VwcmVtZS1jb3VydC1zaWduYWxzLWl0LXdpbGwtc2lkZS13aXRoLWtlbnR1Y2t5LWFncy1iaWQtdG8tZGVmZW5kLWFib3J0aW9uLWxhdy5odG1s?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMidGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMTAvMTIvc3VwcmVtZS1jb3VydC1zaWduYWxzLWl0LXdpbGwtc2lkZS13aXRoLWtlbnR1Y2t5LWFncy1iaWQtdG8tZGVmZW5kLWFib3J0aW9uLWxhdy5odG1s0gF4aHR0cHM6Ly93d3cuY25iYy5jb20vYW1wLzIwMjEvMTAvMTIvc3VwcmVtZS1jb3VydC1zaWduYWxzLWl0LXdpbGwtc2lkZS13aXRoLWtlbnR1Y2t5LWFncy1iaWQtdG8tZGVmZW5kLWFib3J0aW9uLWxhdy5odG1s?oc=5</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Simon &amp; Schuster won't distribute book by officer in Breonna Taylor 
-   case  NBC News
-   2. Simon &amp; Schuster won't distribute book by a Louisville police officer 
-   involved in the Breonna Taylor raid  CNN 
-   3. One Of The Cops Involved In B"&amp;"reonna Taylor's Death Just Got A Book 
-   Deal  HuffPost
-   4. Officer involved in Breonna Taylor raid writing a book  WDRB
-   5. Louisville officer shot in Breonna Taylor raid is reprimanded by 
-   police chief for email  Fox News
-   6. *View Full Covera"&amp;"ge on Google News*
+   1. Supreme Court signals it will side with Kentucky attorney general in 
+   bid to defend abortion law  CNBC
+   2. Supreme Court seems open to letting Kentucky attorney general defend 
+   abortion law  CNN
+   3. Supreme Court could OK new defense "&amp;"of Kentucky abortion law  Yahoo 
+   News
+   4. Justice Alito Proved My Point by Attacking Me  The Atlantic
+   5. Abortion is still safe and legal in Kentucky. Here's why it needs to 
+   stay that way  Courier Journal
+   6. *View Full Coverage on Google Ne"&amp;"ws*
 ")</f>
         <v>
-   1. Simon &amp; Schuster won't distribute book by officer in Breonna Taylor 
-   case  NBC News
-   2. Simon &amp; Schuster won't distribute book by a Louisville police officer 
-   involved in the Breonna Taylor raid  CNN 
-   3. One Of The Cops Involved In Breonna Taylor's Death Just Got A Book 
-   Deal  HuffPost
-   4. Officer involved in Breonna Taylor raid writing a book  WDRB
-   5. Louisville officer shot in Breonna Taylor raid is reprimanded by 
-   police chief for email  Fox News
+   1. Supreme Court signals it will side with Kentucky attorney general in 
+   bid to defend abortion law  CNBC
+   2. Supreme Court seems open to letting Kentucky attorney general defend 
+   abortion law  CNN
+   3. Supreme Court could OK new defense of Kentucky abortion law  Yahoo 
+   News
+   4. Justice Alito Proved My Point by Attacking Me  The Atlantic
+   5. Abortion is still safe and legal in Kentucky. Here's why it needs to 
+   stay that way  Courier Journal
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lawmakers scramble for 'musical chairs' to view Biden's first Capitol speech - POLITICO")</f>
-        <v>Lawmakers scramble for 'musical chairs' to view Biden's first Capitol speech - POLITICO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Texas Governor Greg Abbott bans COVID vaccine mandates - CBS News")</f>
+        <v>Texas Governor Greg Abbott bans COVID vaccine mandates - CBS News</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiRGh0dHBzOi8vd3d3LnBvbGl0aWNvLmNvbS9uZXdzLzIwMjEvMDQvMTYvYmlkZW4tY2FwaXRvbC1zcGVlY2gtNDgyMTgw0gFIaHR0cHM6Ly93d3cucG9saXRpY28uY29tL2FtcC9uZXdzLzIwMjEvMDQvMTYvYmlkZW4tY2FwaXRvbC1zcGVlY2gtNDgyMTgw?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiRGh0dHBzOi8vd3d3LnBvbGl0aWNvLmNvbS9uZXdzLzIwMjEvMDQvMTYvYmlkZW4tY2FwaXRvbC1zcGVlY2gtNDgyMTgw0gFIaHR0cHM6Ly93d3cucG9saXRpY28uY29tL2FtcC9uZXdzLzIwMjEvMDQvMTYvYmlkZW4tY2FwaXRvbC1zcGVlY2gtNDgyMTgw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiK2h0dHBzOi8vd3d3LnlvdXR1YmUuY29tL3dhdGNoP3Y9cFBjbk1ONGs4dmfSAQA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiK2h0dHBzOi8vd3d3LnlvdXR1YmUuY29tL3dhdGNoP3Y9cFBjbk1ONGs4dmfSAQA?oc=5</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Lawmakers scramble for 'musical chairs' to view Biden's first Capitol 
-   speech  POLITICO
-   2. The Hill's Morning Report - Presented by Tax March - Biden to Putin: 
-   Tough sanctions, straight talk | TheHill  The Hill
-   3. POLITICO Playbook"&amp;": Pelosi's big headache — and the Post's black-box 
-   editor search - POLITICO  Politico
-   4. *View Full Coverage on Google News*
+   1. Texas Governor Greg Abbott bans COVID vaccine mandates  CBS News
+   2. Texas Gov. Greg Abbott bans COVID-19 vaccine mandates by any entity  Yahoo 
+   News
+   3. Texas governor bans Covid-19 vaccine mandates by any employer in state
+     CNN
+   "&amp;"4. Texas Bans Mandates; Nets Say Irving Won't Play: Virus Update  
+   Bloomberg
+   5. 5 things for Houstonians to know for Tuesday, Oct. 12  KPRC 
+   Click2Houston
+   6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Lawmakers scramble for 'musical chairs' to view Biden's first Capitol 
-   speech  POLITICO
-   2. The Hill's Morning Report - Presented by Tax March - Biden to Putin: 
-   Tough sanctions, straight talk | TheHill  The Hill
-   3. POLITICO Playbook: Pelosi's big headache — and the Post's black-box 
-   editor search - POLITICO  Politico
-   4. *View Full Coverage on Google News*
+   1. Texas Governor Greg Abbott bans COVID vaccine mandates  CBS News
+   2. Texas Gov. Greg Abbott bans COVID-19 vaccine mandates by any entity  Yahoo 
+   News
+   3. Texas governor bans Covid-19 vaccine mandates by any employer in state
+     CNN
+   4. Texas Bans Mandates; Nets Say Irving Won't Play: Virus Update  
+   Bloomberg
+   5. 5 things for Houstonians to know for Tuesday, Oct. 12  KPRC 
+   Click2Houston
+   6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Daunte Wright shooting: Family demands more severe charges against former Minnesota police officer Kim Potter - WABC-TV")</f>
-        <v>Daunte Wright shooting: Family demands more severe charges against former Minnesota police officer Kim Potter - WABC-TV</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Georgia election workers fired for allegedly shredding hundreds of voter registration forms - The Washington Post")</f>
+        <v>Georgia election workers fired for allegedly shredding hundreds of voter registration forms - The Washington Post</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiUmh0dHBzOi8vYWJjN255LmNvbS9kYXVudGUtd3JpZ2h0LXZpZGVvLXNob290aW5nLWtpbS1wb3R0ZXItY2hhcmdlZC10YXNlci8xMDUxOTA3Ni_SAVZodHRwczovL2FiYzdueS5jb20vYW1wL2RhdW50ZS13cmlnaHQtdmlkZW8tc2hvb3Rpbmcta2ltLXBvdHRlci1jaGFyZ2V"&amp;"kLXRhc2VyLzEwNTE5MDc2Lw?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiUmh0dHBzOi8vYWJjN255LmNvbS9kYXVudGUtd3JpZ2h0LXZpZGVvLXNob290aW5nLWtpbS1wb3R0ZXItY2hhcmdlZC10YXNlci8xMDUxOTA3Ni_SAVZodHRwczovL2FiYzdueS5jb20vYW1wL2RhdW50ZS13cmlnaHQtdmlkZW8tc2hvb3Rpbmcta2ltLXBvdHRlci1jaGFyZ2VkLXRhc2VyLzEwNTE5MDc2Lw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiX2h0dHBzOi8vd3d3Lndhc2hpbmd0b25wb3N0LmNvbS9wb2xpdGljcy8yMDIxLzEwLzEyL2dlb3JnaWEtZnVsdG9uY291bnR5LWVsZWN0aW9uLXdvcmtlcnMtZmlyZWQv0gEA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiX2h0dHBzOi8vd3d3Lndhc2hpbmd0b25wb3N0LmNvbS9wb2xpdGljcy8yMDIxLzEwLzEyL2dlb3JnaWEtZnVsdG9uY291bnR5LWVsZWN0aW9uLXdvcmtlcnMtZmlyZWQv0gEA?oc=5</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Daunte Wright shooting: Family demands more severe charges against 
-   former Minnesota police officer Kim Potter  WABC-TV
-   2. Daunte Wright's mother: 'There's never going to be justice for us'  Yahoo 
-   News
-   3. Opinion | Daunte Wright's "&amp;"Death Is a Call to End Armed Traffic Stops  The 
-   New York Times
-   4. 10 p.m. curfew passes with no dispersal orders in Brooklyn Center  Minneapolis 
-   Star Tribune
-   5. Tony Norman: The cop who mistook her gun for a Taser (and other 
-   mysteries)  "&amp;"Pittsburgh Post-Gazette
+   1. Georgia election workers fired for allegedly shredding hundreds of 
+   voter registration forms  The Washington Post
+   2. Two Georgia workers fired after being accused of shredding voting 
+   applications  Fox News
+   3. Election workers accus"&amp;"ed of shredding voter applications  Yahoo News
+   4. SOS Raffensperger wants DOJ probe of Fulton shredding  WALB
+   5. Fulton County investigating shredded voter applications  11Alive
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Daunte Wright shooting: Family demands more severe charges against 
-   former Minnesota police officer Kim Potter  WABC-TV
-   2. Daunte Wright's mother: 'There's never going to be justice for us'  Yahoo 
-   News
-   3. Opinion | Daunte Wright's Death Is a Call to End Armed Traffic Stops  The 
-   New York Times
-   4. 10 p.m. curfew passes with no dispersal orders in Brooklyn Center  Minneapolis 
-   Star Tribune
-   5. Tony Norman: The cop who mistook her gun for a Taser (and other 
-   mysteries)  Pittsburgh Post-Gazette
+   1. Georgia election workers fired for allegedly shredding hundreds of 
+   voter registration forms  The Washington Post
+   2. Two Georgia workers fired after being accused of shredding voting 
+   applications  Fox News
+   3. Election workers accused of shredding voter applications  Yahoo News
+   4. SOS Raffensperger wants DOJ probe of Fulton shredding  WALB
+   5. Fulton County investigating shredded voter applications  11Alive
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"What to expect at Prince Philip’s funeral - The Washington Post")</f>
-        <v>What to expect at Prince Philip’s funeral - The Washington Post</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"World's largest Byzantine wine factory uncovered in Israel - CNN")</f>
+        <v>World's largest Byzantine wine factory uncovered in Israel - CNN</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiTGh0dHBzOi8vd3d3Lndhc2hpbmd0b25wb3N0LmNvbS93b3JsZC8yMDIxLzA0LzE2L3ByaW5jZS1waGlsaXAtZnVuZXJhbC1wbGFucy_SAVtodHRwczovL3d3dy53YXNoaW5ndG9ucG9zdC5jb20vd29ybGQvMjAyMS8wNC8xNi9wcmluY2UtcGhpbGlwLWZ1bmVyYWwtcGxhbnM"&amp;"vP291dHB1dFR5cGU9YW1w?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiTGh0dHBzOi8vd3d3Lndhc2hpbmd0b25wb3N0LmNvbS93b3JsZC8yMDIxLzA0LzE2L3ByaW5jZS1waGlsaXAtZnVuZXJhbC1wbGFucy_SAVtodHRwczovL3d3dy53YXNoaW5ndG9ucG9zdC5jb20vd29ybGQvMjAyMS8wNC8xNi9wcmluY2UtcGhpbGlwLWZ1bmVyYWwtcGxhbnMvP291dHB1dFR5cGU9YW1w?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiWWh0dHBzOi8vd3d3LmNubi5jb20vdHJhdmVsL2FydGljbGUvaXNyYWVsLWJ5emFudGluZS13aW5lLWZhY3Rvcnktc2NuLXNjbGktaW50bC9pbmRleC5odG1s0gFVaHR0cHM6Ly93d3cuY25uLmNvbS90cmF2ZWwvYW1wL2lzcmFlbC1ieXphbnRpbmUtd2luZS1mYWN0b3J5LXN"&amp;"jbi1zY2xpLWludGwvaW5kZXguaHRtbA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiWWh0dHBzOi8vd3d3LmNubi5jb20vdHJhdmVsL2FydGljbGUvaXNyYWVsLWJ5emFudGluZS13aW5lLWZhY3Rvcnktc2NuLXNjbGktaW50bC9pbmRleC5odG1s0gFVaHR0cHM6Ly93d3cuY25uLmNvbS90cmF2ZWwvYW1wL2lzcmFlbC1ieXphbnRpbmUtd2luZS1mYWN0b3J5LXNjbi1zY2xpLWludGwvaW5kZXguaHRtbA?oc=5</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. What to expect at Prince Philip’s funeral  The Washington Post
-   2. Queen Elizabeth made some ‘difficult decisions’ related to Prince 
-   Philip’s funeral plans  Fox News
-   3. Prince Philip will be buried Saturday — then moved when the Queen "&amp;"dies
-     New York Post 
-   4. All eyes on Prince Harry, and royal rift, after his return to U.K. 
-   for Prince Philip's funeral  NBC News
-   5. Prince Philip's Duke of Edinburgh title has passed to Prince Charles  
-   Insider
-   6. *View Full Coverage o"&amp;"n Google News*
+   1. World's largest Byzantine wine factory uncovered in Israel  CNN
+   2. Israel winery: 1,500-year-old Byzantine wine complex found  BBC News
+   3. 1,500-year-old winery discovered in Israel  NPR
+   4. Israeli archaeologists discover ancient winem"&amp;"aking complex  New York 
+   Post 
+   5. 1,500-year-old wine factory unearthed in Israel believed to be 
+   world's largest from that era  USA TODAY
+   6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. What to expect at Prince Philip’s funeral  The Washington Post
-   2. Queen Elizabeth made some ‘difficult decisions’ related to Prince 
-   Philip’s funeral plans  Fox News
-   3. Prince Philip will be buried Saturday — then moved when the Queen dies
-     New York Post 
-   4. All eyes on Prince Harry, and royal rift, after his return to U.K. 
-   for Prince Philip's funeral  NBC News
-   5. Prince Philip's Duke of Edinburgh title has passed to Prince Charles  
-   Insider
+   1. World's largest Byzantine wine factory uncovered in Israel  CNN
+   2. Israel winery: 1,500-year-old Byzantine wine complex found  BBC News
+   3. 1,500-year-old winery discovered in Israel  NPR
+   4. Israeli archaeologists discover ancient winemaking complex  New York 
+   Post 
+   5. 1,500-year-old wine factory unearthed in Israel believed to be 
+   world's largest from that era  USA TODAY
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Iran starts enriching uranium to 60%, its highest level ever - Fox News")</f>
-        <v>Iran starts enriching uranium to 60%, its highest level ever - Fox News</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Divorced UK and EU head for new Brexit fight over N Ireland - Associated Press")</f>
+        <v>Divorced UK and EU head for new Brexit fight over N Ireland - Associated Press</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiWGh0dHBzOi8vd3d3LmZveG5ld3MuY29tL3dvcmxkL2lyYW4tc3RhcnRzLWVucmljaGluZy11cmFuaXVtLXRvLTYwLWl0cy1oaWdoZXN0LWxldmVsLWV2ZXLSAVxodHRwczovL3d3dy5mb3huZXdzLmNvbS93b3JsZC9pcmFuLXN0YXJ0cy1lbnJpY2hpbmctdXJhbml1bS10by0"&amp;"2MC1pdHMtaGlnaGVzdC1sZXZlbC1ldmVyLmFtcA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiWGh0dHBzOi8vd3d3LmZveG5ld3MuY29tL3dvcmxkL2lyYW4tc3RhcnRzLWVucmljaGluZy11cmFuaXVtLXRvLTYwLWl0cy1oaWdoZXN0LWxldmVsLWV2ZXLSAVxodHRwczovL3d3dy5mb3huZXdzLmNvbS93b3JsZC9pcmFuLXN0YXJ0cy1lbnJpY2hpbmctdXJhbml1bS10by02MC1pdHMtaGlnaGVzdC1sZXZlbC1ldmVyLmFtcA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiM2h0dHBzOi8vYXBuZXdzLmNvbS82ODUxMjEwMjA0YTJmMmM3MGE0NjZkYTlkN2IzNjQ3ONIBAA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiM2h0dHBzOi8vYXBuZXdzLmNvbS82ODUxMjEwMjA0YTJmMmM3MGE0NjZkYTlkN2IzNjQ3ONIBAA?oc=5</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Iran starts enriching uranium to 60%, its highest level ever  Fox News
-   2. Iran begins enriching uranium at 60 percent purity near end of 
-   nuclear talks  New York Post 
-   3. Iran says it's enriching uranium to 60% - What's going on with t"&amp;"he 
-   Iran nuclear talks?  CBS News
-   4. U.S. return to Iran nuclear deal merits broad support | READER 
-   COMMENTARY  Baltimore Sun
-   5. Diplomacy—Blemishes and All—is the Best Way to Deal With Iran | 
-   Opinion  Newsweek
-   6. *View Full Coverage o"&amp;"n Google News*
+   1. Divorced UK and EU head for new Brexit fight over N Ireland  Associated 
+   Press
+   2. Brexit: Lord Frost proposes 'entirely new' NI protocol  BBC News
+   3. UK Shares New Post-Brexit Trade Plan For North Ireland With European 
+   Union  NDTV
+"&amp;"   4. The cult of Boris Johnson’s optimism is all that’s left of a Brexit 
+   plan  The Guardian
+   5. Boris Johnson's Northern Ireland Sausage War with the EU May Turn 
+   Nasty  Bloomberg
+   6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Iran starts enriching uranium to 60%, its highest level ever  Fox News
-   2. Iran begins enriching uranium at 60 percent purity near end of 
-   nuclear talks  New York Post 
-   3. Iran says it's enriching uranium to 60% - What's going on with the 
-   Iran nuclear talks?  CBS News
-   4. U.S. return to Iran nuclear deal merits broad support | READER 
-   COMMENTARY  Baltimore Sun
-   5. Diplomacy—Blemishes and All—is the Best Way to Deal With Iran | 
-   Opinion  Newsweek
+   1. Divorced UK and EU head for new Brexit fight over N Ireland  Associated 
+   Press
+   2. Brexit: Lord Frost proposes 'entirely new' NI protocol  BBC News
+   3. UK Shares New Post-Brexit Trade Plan For North Ireland With European 
+   Union  NDTV
+   4. The cult of Boris Johnson’s optimism is all that’s left of a Brexit 
+   plan  The Guardian
+   5. Boris Johnson's Northern Ireland Sausage War with the EU May Turn 
+   Nasty  Bloomberg
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Biden to host Japanese PM at White House in president’s first visit from foreign leader – live - The Guardian")</f>
-        <v>Biden to host Japanese PM at White House in president’s first visit from foreign leader – live - The Guardian</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Brazil's Bolsonaro: 'Bored' by questions on Covid-19 death toll, world's 2nd highest - NBC News")</f>
+        <v>Brazil's Bolsonaro: 'Bored' by questions on Covid-19 death toll, world's 2nd highest - NBC News</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMifWh0dHBzOi8vd3d3LnRoZWd1YXJkaWFuLmNvbS91cy1uZXdzL2xpdmUvMjAyMS9hcHIvMTYvam9lLWJpZGVuLWphcGFuZXNlLXByaW1lLW1pbmlzdGVyLXZpc2l0LWNvdmlkLWNvcm9uYXZpcnVzLWxhdGVzdC11cGRhdGVz0gF9aHR0cHM6Ly9hbXAudGhlZ3VhcmRpYW4uY29"&amp;"tL3VzLW5ld3MvbGl2ZS8yMDIxL2Fwci8xNi9qb2UtYmlkZW4tamFwYW5lc2UtcHJpbWUtbWluaXN0ZXItdmlzaXQtY292aWQtY29yb25hdmlydXMtbGF0ZXN0LXVwZGF0ZXM?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMifWh0dHBzOi8vd3d3LnRoZWd1YXJkaWFuLmNvbS91cy1uZXdzL2xpdmUvMjAyMS9hcHIvMTYvam9lLWJpZGVuLWphcGFuZXNlLXByaW1lLW1pbmlzdGVyLXZpc2l0LWNvdmlkLWNvcm9uYXZpcnVzLWxhdGVzdC11cGRhdGVz0gF9aHR0cHM6Ly9hbXAudGhlZ3VhcmRpYW4uY29tL3VzLW5ld3MvbGl2ZS8yMDIxL2Fwci8xNi9qb2UtYmlkZW4tamFwYW5lc2UtcHJpbWUtbWluaXN0ZXItdmlzaXQtY292aWQtY29yb25hdmlydXMtbGF0ZXN0LXVwZGF0ZXM?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMic2h0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvbGF0aW5vL2JyYXppbHMtYm9sc29uYXJvLWJvcmVkLXF1ZXN0aW9ucy1jb3ZpZC0xOS1kZWF0aC10b2xsLXdvcmxkcy0ybmQtaGlnaGUtcmNuYTI5MDfSASlodHRwczovL3d3dy5uYmNuZXdzLmNvbS9uZXdzL2FtcC9yY25"&amp;"hMjkwNw?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMic2h0dHBzOi8vd3d3Lm5iY25ld3MuY29tL25ld3MvbGF0aW5vL2JyYXppbHMtYm9sc29uYXJvLWJvcmVkLXF1ZXN0aW9ucy1jb3ZpZC0xOS1kZWF0aC10b2xsLXdvcmxkcy0ybmQtaGlnaGUtcmNuYTI5MDfSASlodHRwczovL3d3dy5uYmNuZXdzLmNvbS9uZXdzL2FtcC9yY25hMjkwNw?oc=5</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Biden to host Japanese PM at White House in president’s first visit 
-   from foreign leader – live  The Guardian
-   2. Beijing warns US, Japan against collusion vs China  Yahoo News
-   3. Live updates: Biden and Japan’s Suga to hold Rose Garden"&amp;" news 
-   conference after afternoon of meetings  The Washington Post
-   4. To Strengthen US-Japan Alliance, Suga Should Lead in Asia  Bloomberg
-   5. US-Japan alliance in full bloom | TheHill  The Hill
+   1. Brazil's Bolsonaro: 'Bored' by questions on Covid-19 death toll, 
+   world's 2nd highest  NBC News
+   2. Brazil's Bolsonaro accused of crimes against humanity at ICC for his 
+   record on the Amazon  CNN
+   3. Bolsonaro blocks free tampons and "&amp;"pads for disadvantaged women in 
+   Brazil  The Guardian
+   4. Bolsonaro's record on Amazon sparks accusations of crimes against 
+   humanity | TheHill  The Hill
+   5. Climate activists call for investigation of Bolsonaro  Yahoo News
+   6. *View Full Cove"&amp;"rage on Google News*
+")</f>
+        <v>
+   1. Brazil's Bolsonaro: 'Bored' by questions on Covid-19 death toll, 
+   world's 2nd highest  NBC News
+   2. Brazil's Bolsonaro accused of crimes against humanity at ICC for his 
+   record on the Amazon  CNN
+   3. Bolsonaro blocks free tampons and pads for disadvantaged women in 
+   Brazil  The Guardian
+   4. Bolsonaro's record on Amazon sparks accusations of crimes against 
+   humanity | TheHill  The Hill
+   5. Climate activists call for investigation of Bolsonaro  Yahoo News
+   6. *View Full Coverage on Google News*
+</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Americans quit their jobs at a record pace in August - ABC News")</f>
+        <v>Americans quit their jobs at a record pace in August - ABC News</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
+        <v>Google Inc.</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiWWh0dHBzOi8vYWJjbmV3cy5nby5jb20vQnVzaW5lc3Mvd2lyZVN0b3J5L2FtZXJpY2Fucy1xdWl0LWpvYnMtcmVjb3JkLXBhY2UtYXVndXN0LTgwNTM2NzMy0gFdaHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9hbXAvQnVzaW5lc3Mvd2lyZVN0b3J5L2FtZXJpY2Fucy1xdWl0LWp"&amp;"vYnMtcmVjb3JkLXBhY2UtYXVndXN0LTgwNTM2NzMy?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiWWh0dHBzOi8vYWJjbmV3cy5nby5jb20vQnVzaW5lc3Mvd2lyZVN0b3J5L2FtZXJpY2Fucy1xdWl0LWpvYnMtcmVjb3JkLXBhY2UtYXVndXN0LTgwNTM2NzMy0gFdaHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9hbXAvQnVzaW5lc3Mvd2lyZVN0b3J5L2FtZXJpY2Fucy1xdWl0LWpvYnMtcmVjb3JkLXBhY2UtYXVndXN0LTgwNTM2NzMy?oc=5</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
+   1. Americans quit their jobs at a record pace in August  ABC News
+   2. A record 4.3 million workers quit their jobs in August, led by food 
+   and retail industries  CNBC
+   3. A record number of Americans are quitting their jobs  CNN
+   4. A rec"&amp;"ord number of workers are quitting their jobs, empowered by new 
+   leverage  The Washington Post
+   5. Job openings slip, quits rate hits record  Fox Business
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Biden to host Japanese PM at White House in president’s first visit 
-   from foreign leader – live  The Guardian
-   2. Beijing warns US, Japan against collusion vs China  Yahoo News
-   3. Live updates: Biden and Japan’s Suga to hold Rose Garden news 
-   conference after afternoon of meetings  The Washington Post
-   4. To Strengthen US-Japan Alliance, Suga Should Lead in Asia  Bloomberg
-   5. US-Japan alliance in full bloom | TheHill  The Hill
+   1. Americans quit their jobs at a record pace in August  ABC News
+   2. A record 4.3 million workers quit their jobs in August, led by food 
+   and retail industries  CNBC
+   3. A record number of Americans are quitting their jobs  CNN
+   4. A record number of workers are quitting their jobs, empowered by new 
+   leverage  The Washington Post
+   5. Job openings slip, quits rate hits record  Fox Business
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pakistan briefly blocks social media amid anti-France rally - The Associated Press")</f>
-        <v>Pakistan briefly blocks social media amid anti-France rally - The Associated Press</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
-        <v>Google Inc.</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMic2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3Bha2lzdGFuLW1lZGlhLXNvY2lhbC1tZWRpYS1jb3JvbmF2aXJ1cy1wYW5kZW1pYy1sYWhvcmUtZTliMGM2MDg3MmQ4MjZjMzRkYzI0NDFjYTAzMjMzMmLSAQA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMic2h0dHBzOi8vYXBuZXdzLmNvbS9hcnRpY2xlL3Bha2lzdGFuLW1lZGlhLXNvY2lhbC1tZWRpYS1jb3JvbmF2aXJ1cy1wYW5kZW1pYy1sYWhvcmUtZTliMGM2MDg3MmQ4MjZjMzRkYzI0NDFjYTAzMjMzMmLSAQA?oc=5</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pakistan briefly blocks social media amid anti-France rally  The Associated 
-Press*View Full Coverage on Google News*")</f>
-        <v>Pakistan briefly blocks social media amid anti-France rally  The Associated 
-Press*View Full Coverage on Google News*</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pfizer CEO says a third vaccine dose is likely, Moderna updates booster shot timeline - Yahoo Finance")</f>
-        <v>Pfizer CEO says a third vaccine dose is likely, Moderna updates booster shot timeline - Yahoo Finance</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Southwest Airlines Didn't Cancel Over 2,500 Flights Because Of A Vaccine Mandate Protest - Jalopnik")</f>
+        <v>Southwest Airlines Didn't Cancel Over 2,500 Flights Because Of A Vaccine Mandate Protest - Jalopnik</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiTGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vdmlkZW8vcGZpemVyLWNlby1zYXlzLXRoaXJkLXZhY2NpbmUtMTMyMzAxNTY3Lmh0bWzSAVRodHRwczovL2ZpbmFuY2UueWFob28uY29tL2FtcGh0bWwvdmlkZW8vcGZpemVyLWNlby1zYXlzLXRoaXJkLXZhY2NpbmUtMTMyMzA"&amp;"xNTY3Lmh0bWw?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiTGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vdmlkZW8vcGZpemVyLWNlby1zYXlzLXRoaXJkLXZhY2NpbmUtMTMyMzAxNTY3Lmh0bWzSAVRodHRwczovL2ZpbmFuY2UueWFob28uY29tL2FtcGh0bWwvdmlkZW8vcGZpemVyLWNlby1zYXlzLXRoaXJkLXZhY2NpbmUtMTMyMzAxNTY3Lmh0bWw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiV2h0dHBzOi8vamFsb3BuaWsuY29tL3NvdXRod2VzdC1haXJsaW5lcy1kaWRudC1jYW5jZWwtb3Zlci0yLTUwMC1mbGlnaHRzLWJlY2EtMTg0Nzg0NjU2M9IBW2h0dHBzOi8vamFsb3BuaWsuY29tL3NvdXRod2VzdC1haXJsaW5lcy1kaWRudC1jYW5jZWwtb3Zlci0yLTUwMC1"&amp;"mbGlnaHRzLWJlY2EtMTg0Nzg0NjU2My9hbXA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiV2h0dHBzOi8vamFsb3BuaWsuY29tL3NvdXRod2VzdC1haXJsaW5lcy1kaWRudC1jYW5jZWwtb3Zlci0yLTUwMC1mbGlnaHRzLWJlY2EtMTg0Nzg0NjU2M9IBW2h0dHBzOi8vamFsb3BuaWsuY29tL3NvdXRod2VzdC1haXJsaW5lcy1kaWRudC1jYW5jZWwtb3Zlci0yLTUwMC1mbGlnaHRzLWJlY2EtMTg0Nzg0NjU2My9hbXA?oc=5</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Pfizer CEO says a third vaccine dose is likely, Moderna updates 
-   booster shot timeline  Yahoo Finance
-   2. Pfizer CEO says third Covid vaccine dose likely needed within 12 
-   months  CNBC
-   3. Third Pfizer COVID-19 vaccine dose ‘likely’ n"&amp;"eeded within year, CEO 
-   says  Fox News
-   4. Vaccine halt highlights pitfalls of effective public health policy | 
-   TheHill  The Hill
-   5. U.S. parents begin to ask: Should my child get a COVID-19 shot?  Yahoo 
+   1. Southwest Airlines Didn't Cancel Over 2,500 Flights Because Of A 
+   Vaccine Mandate Protest  Jalopnik
+   2. Southwest Airlines faces fifth day of delays, cancellations  Fox 
+   Business
+   3. Editorial: After the Southwest debacle, airlines ne"&amp;"ed to take better 
+   care of their customers. Or else.  Chicago Tribune
+   4. Southwest pilots' union president blames airline for widespread 
+   cancellations: ""We've been sounding this alarm for about four years""  CBS 
    News
-   6. *View Full Coverage on G"&amp;"oogle News*
+   5. Airlines bowing t"&amp;"o a 'press release'; vax mandate a 'mirage' not yet 
+   on books: Watters  Fox News
+   6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Pfizer CEO says a third vaccine dose is likely, Moderna updates 
-   booster shot timeline  Yahoo Finance
-   2. Pfizer CEO says third Covid vaccine dose likely needed within 12 
-   months  CNBC
-   3. Third Pfizer COVID-19 vaccine dose ‘likely’ needed within year, CEO 
-   says  Fox News
-   4. Vaccine halt highlights pitfalls of effective public health policy | 
-   TheHill  The Hill
-   5. U.S. parents begin to ask: Should my child get a COVID-19 shot?  Yahoo 
+   1. Southwest Airlines Didn't Cancel Over 2,500 Flights Because Of A 
+   Vaccine Mandate Protest  Jalopnik
+   2. Southwest Airlines faces fifth day of delays, cancellations  Fox 
+   Business
+   3. Editorial: After the Southwest debacle, airlines need to take better 
+   care of their customers. Or else.  Chicago Tribune
+   4. Southwest pilots' union president blames airline for widespread 
+   cancellations: "We've been sounding this alarm for about four years"  CBS 
    News
+   5. Airlines bowing to a 'press release'; vax mandate a 'mirage' not yet 
+   on books: Watters  Fox News
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"J&amp;J asked Pfizer and Moderna to help study blood clot risks but they declined, report says - CNBC")</f>
-        <v>J&amp;J asked Pfizer and Moderna to help study blood clot risks but they declined, report says - CNBC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IMF warns on inflation, says the Fed and others should be prepared to tighten policy - CNBC")</f>
+        <v>IMF warns on inflation, says the Fed and others should be prepared to tighten policy - CNBC</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMibGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMDQvMTYvamotYXNrZWQtcGZpemVyLW1vZGVybmEtdG8taGVscC1zdHVkeS1ibG9vZC1jbG90cy1idXQtdGhleS1kZWNsaW5lZC13c2ouaHRtbNIBcGh0dHBzOi8vd3d3LmNuYmMuY29tL2FtcC8yMDIxLzA0LzE2L2pqLWFza2V"&amp;"kLXBmaXplci1tb2Rlcm5hLXRvLWhlbHAtc3R1ZHktYmxvb2QtY2xvdHMtYnV0LXRoZXktZGVjbGluZWQtd3NqLmh0bWw?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMibGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMDQvMTYvamotYXNrZWQtcGZpemVyLW1vZGVybmEtdG8taGVscC1zdHVkeS1ibG9vZC1jbG90cy1idXQtdGhleS1kZWNsaW5lZC13c2ouaHRtbNIBcGh0dHBzOi8vd3d3LmNuYmMuY29tL2FtcC8yMDIxLzA0LzE2L2pqLWFza2VkLXBmaXplci1tb2Rlcm5hLXRvLWhlbHAtc3R1ZHktYmxvb2QtY2xvdHMtYnV0LXRoZXktZGVjbGluZWQtd3NqLmh0bWw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMieGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMTAvMTIvaW1mLXdhcm5zLW9uLWluZmxhdGlvbi1zYXlzLXRoZS1mZWQtYW5kLW90aGVycy1zaG91bGQtYmUtcHJlcGFyZWQtdG8tdGlnaHRlbi1wb2xpY3kuaHRtbNIBfGh0dHBzOi8vd3d3LmNuYmMuY29tL2FtcC8yMDIxLzE"&amp;"wLzEyL2ltZi13YXJucy1vbi1pbmZsYXRpb24tc2F5cy10aGUtZmVkLWFuZC1vdGhlcnMtc2hvdWxkLWJlLXByZXBhcmVkLXRvLXRpZ2h0ZW4tcG9saWN5Lmh0bWw?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMieGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMTAvMTIvaW1mLXdhcm5zLW9uLWluZmxhdGlvbi1zYXlzLXRoZS1mZWQtYW5kLW90aGVycy1zaG91bGQtYmUtcHJlcGFyZWQtdG8tdGlnaHRlbi1wb2xpY3kuaHRtbNIBfGh0dHBzOi8vd3d3LmNuYmMuY29tL2FtcC8yMDIxLzEwLzEyL2ltZi13YXJucy1vbi1pbmZsYXRpb24tc2F5cy10aGUtZmVkLWFuZC1vdGhlcnMtc2hvdWxkLWJlLXByZXBhcmVkLXRvLXRpZ2h0ZW4tcG9saWN5Lmh0bWw?oc=5</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. J&amp;J asked Pfizer and Moderna to help study blood clot risks but they 
-   declined, report says  CNBC
-   2. America is about to hit a 'vaccine wall' as demand drops — with or 
-   without Johnson &amp; Johnson  Yahoo News
-   3. The latest information"&amp;" on the Johnson &amp; Johnson COVID-19 vaccine  Good 
-   Morning America
-   4. The FDA’s Decision to Pause J&amp;J Could Help Defeat Covid-19  WIRED
-   5. An abundance of caution and good science are the right way to build 
-   trust in vaccines  CNN
-   6. *View F"&amp;"ull Coverage on Google News*
-")</f>
-        <v>
-   1. J&amp;J asked Pfizer and Moderna to help study blood clot risks but they 
-   declined, report says  CNBC
-   2. America is about to hit a 'vaccine wall' as demand drops — with or 
-   without Johnson &amp; Johnson  Yahoo News
-   3. The latest information on the Johnson &amp; Johnson COVID-19 vaccine  Good 
-   Morning America
-   4. The FDA’s Decision to Pause J&amp;J Could Help Defeat Covid-19  WIRED
-   5. An abundance of caution and good science are the right way to build 
-   trust in vaccines  CNN
-   6. *View Full Coverage on Google News*
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IMF warns on inflation, says the Fed and others should be prepared to 
+tighten policy  CNBC*View Full Coverage on Google News*")</f>
+        <v>IMF warns on inflation, says the Fed and others should be prepared to 
+tighten policy  CNBC*View Full Coverage on Google News*</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dow Jones Today Sets Pace As Futures Rise; Caterpillar Eyes Buy Point; Progygny, Lattice Semi Head For S&amp;P 400 - Investor's Business Daily")</f>
-        <v>Dow Jones Today Sets Pace As Futures Rise; Caterpillar Eyes Buy Point; Progygny, Lattice Semi Head For S&amp;P 400 - Investor's Business Daily</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IMF trims global growth outlook, warning of supply disruptions and surging inflation - Fox Business")</f>
+        <v>IMF trims global growth outlook, warning of supply disruptions and surging inflation - Fox Business</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMipQFodHRwczovL3d3dy5pbnZlc3RvcnMuY29tL21hcmtldC10cmVuZC9zdG9jay1tYXJrZXQtdG9kYXkvZG93LWpvbmVzLXRvZGF5LXNldHMtcGFjZS1hcy1mdXR1cmVzLXJpc2UtY2F0ZXJwaWxsYXItZXllcy1idXktcG9pbnQtcHJvZ3lnbnktbGF0dGljZS1zZW1pLWhlYWQ"&amp;"tZm9yLXNwLTQwMC_SAQA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMipQFodHRwczovL3d3dy5pbnZlc3RvcnMuY29tL21hcmtldC10cmVuZC9zdG9jay1tYXJrZXQtdG9kYXkvZG93LWpvbmVzLXRvZGF5LXNldHMtcGFjZS1hcy1mdXR1cmVzLXJpc2UtY2F0ZXJwaWxsYXItZXllcy1idXktcG9pbnQtcHJvZ3lnbnktbGF0dGljZS1zZW1pLWhlYWQtZm9yLXNwLTQwMC_SAQA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiR2h0dHBzOi8vd3d3LmZveGJ1c2luZXNzLmNvbS9lY29ub215L2ltZi1ncm93dGgtb3V0bG9vay1zdXBwbHktaW5mbGF0aW9u0gFLaHR0cHM6Ly93d3cuZm94YnVzaW5lc3MuY29tL2Vjb25vbXkvaW1mLWdyb3d0aC1vdXRsb29rLXN1cHBseS1pbmZsYXRpb24uYW1w?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiR2h0dHBzOi8vd3d3LmZveGJ1c2luZXNzLmNvbS9lY29ub215L2ltZi1ncm93dGgtb3V0bG9vay1zdXBwbHktaW5mbGF0aW9u0gFLaHR0cHM6Ly93d3cuZm94YnVzaW5lc3MuY29tL2Vjb25vbXkvaW1mLWdyb3d0aC1vdXRsb29rLXN1cHBseS1pbmZsYXRpb24uYW1w?oc=5</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Dow Jones Today Sets Pace As Futures Rise; Caterpillar Eyes Buy 
-   Point; Progygny, Lattice Semi Head For S&amp;P 400  Investor's Business Daily
-   2. S&amp;P 500, Dow hit record highs on bank earnings boost  Reuters
-   3. Market Recap: Thursday, Apri"&amp;"l 15: Dow closes above 34000 for the 
-   first time  Yahoo Finance
-   4. Futures Rise As Yields Rebound; 3 Giants Flash Buy Signals  Investor's 
-   Business Daily
-   5. US stocks rise to records on more proof of economic recovery  KOMO 
-   News
-   6. *Vie"&amp;"w Full Coverage on Google News*
+   1. IMF trims global growth outlook, warning of supply disruptions and 
+   surging inflation  Fox Business
+   2. IMF Sees Risk of ‘Sizable’ Selloffs in Stocks, Housing Market  Yahoo 
+   Finance
+   3. Vaccinating poorer countries is vital to the rec"&amp;"overy  Financial Times
+   4. IMF's Gita Gopinath on Economic Outlook, monetary policy, and 
+   inflation  Yahoo Finance
+   5. Fed and IMF Eye Inflation Risks: Live Business and Economy Updates  The 
+   New York Times
+   6. *View Full Coverage on Google Ne"&amp;"ws*
 ")</f>
         <v>
-   1. Dow Jones Today Sets Pace As Futures Rise; Caterpillar Eyes Buy 
-   Point; Progygny, Lattice Semi Head For S&amp;P 400  Investor's Business Daily
-   2. S&amp;P 500, Dow hit record highs on bank earnings boost  Reuters
-   3. Market Recap: Thursday, April 15: Dow closes above 34000 for the 
-   first time  Yahoo Finance
-   4. Futures Rise As Yields Rebound; 3 Giants Flash Buy Signals  Investor's 
-   Business Daily
-   5. US stocks rise to records on more proof of economic recovery  KOMO 
-   News
+   1. IMF trims global growth outlook, warning of supply disruptions and 
+   surging inflation  Fox Business
+   2. IMF Sees Risk of ‘Sizable’ Selloffs in Stocks, Housing Market  Yahoo 
+   Finance
+   3. Vaccinating poorer countries is vital to the recovery  Financial Times
+   4. IMF's Gita Gopinath on Economic Outlook, monetary policy, and 
+   inflation  Yahoo Finance
+   5. Fed and IMF Eye Inflation Risks: Live Business and Economy Updates  The 
+   New York Times
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"China Growth Numbers Betray Waning Momentum - The Wall Street Journal")</f>
-        <v>China Growth Numbers Betray Waning Momentum - The Wall Street Journal</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Apple sends invites for Oct. 18 launch event, where new MacBooks are expected - CNBC")</f>
+        <v>Apple sends invites for Oct. 18 launch event, where new MacBooks are expected - CNBC</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiVGh0dHBzOi8vd3d3Lndzai5jb20vYXJ0aWNsZXMvY2hpbmEtZ3Jvd3RoLW51bWJlcnMtYmV0cmF5LXdhbmluZy1tb21lbnR1bS0xMTYxODU2OTkwMNIBAA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiVGh0dHBzOi8vd3d3Lndzai5jb20vYXJ0aWNsZXMvY2hpbmEtZ3Jvd3RoLW51bWJlcnMtYmV0cmF5LXdhbmluZy1tb21lbnR1bS0xMTYxODU2OTkwMNIBAA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiU2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMTAvMTIvYXBwbGUtZXZlbnQtMjAyMS1pbnZpdGVzLXNlbnQtZm9yLW5ldy1tYWNib29rcy5odG1s0gFXaHR0cHM6Ly93d3cuY25iYy5jb20vYW1wLzIwMjEvMTAvMTIvYXBwbGUtZXZlbnQtMjAyMS1pbnZpdGVzLXNlbnQtZm9"&amp;"yLW5ldy1tYWNib29rcy5odG1s?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiU2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjEvMTAvMTIvYXBwbGUtZXZlbnQtMjAyMS1pbnZpdGVzLXNlbnQtZm9yLW5ldy1tYWNib29rcy5odG1s0gFXaHR0cHM6Ly93d3cuY25iYy5jb20vYW1wLzIwMjEvMTAvMTIvYXBwbGUtZXZlbnQtMjAyMS1pbnZpdGVzLXNlbnQtZm9yLW5ldy1tYWNib29rcy5odG1s?oc=5</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"China Growth Numbers Betray Waning Momentum  The Wall Street Journal*View 
-Full Coverage on Google News*")</f>
-        <v>China Growth Numbers Betray Waning Momentum  The Wall Street Journal*View 
-Full Coverage on Google News*</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
+   1. Apple sends invites for Oct. 18 launch event, where new MacBooks are 
+   expected  CNBC
+   2. Apple announces October 18th event after months of Mac rumors  The 
+   Verge
+   3. MacBook Pro 2021 at Apple event — here's the 5 biggest rumored 
+   "&amp;"upgrades  Tom's Guide
+   4. 'Unleashed' Apple Event Focusing on New Macs to Take Place on October 
+   18  MacRumors
+   5. Apple announces ‘Unleashed’ special event for October 18, M1X MacBook 
+   Pros expected  9to5Mac
+   6. *View Full Coverage on Google "&amp;"News*
+")</f>
+        <v>
+   1. Apple sends invites for Oct. 18 launch event, where new MacBooks are 
+   expected  CNBC
+   2. Apple announces October 18th event after months of Mac rumors  The 
+   Verge
+   3. MacBook Pro 2021 at Apple event — here's the 5 biggest rumored 
+   upgrades  Tom's Guide
+   4. 'Unleashed' Apple Event Focusing on New Macs to Take Place on October 
+   18  MacRumors
+   5. Apple announces ‘Unleashed’ special event for October 18, M1X MacBook 
+   Pros expected  9to5Mac
+   6. *View Full Coverage on Google News*
+</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Leaked video claims to show Apple Pencil 3 with a return to a glossy design - 9to5Mac")</f>
-        <v>Leaked video claims to show Apple Pencil 3 with a return to a glossy design - 9to5Mac</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google countersues Epic Games for sidestepping fees on in-app purchases - Engadget")</f>
+        <v>Google countersues Epic Games for sidestepping fees on in-app purchases - Engadget</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiQmh0dHBzOi8vOXRvNW1hYy5jb20vMjAyMS8wNC8xNi9hcHBsZS1wZW5jaWwtMy1sZWFrZWQtdmlkZW8tZ2xvc3N5L9IBRmh0dHBzOi8vOXRvNW1hYy5jb20vMjAyMS8wNC8xNi9hcHBsZS1wZW5jaWwtMy1sZWFrZWQtdmlkZW8tZ2xvc3N5L2FtcC8?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiQmh0dHBzOi8vOXRvNW1hYy5jb20vMjAyMS8wNC8xNi9hcHBsZS1wZW5jaWwtMy1sZWFrZWQtdmlkZW8tZ2xvc3N5L9IBRmh0dHBzOi8vOXRvNW1hYy5jb20vMjAyMS8wNC8xNi9hcHBsZS1wZW5jaWwtMy1sZWFrZWQtdmlkZW8tZ2xvc3N5L2FtcC8?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiamh0dHBzOi8vd3d3LmVuZ2FkZ2V0LmNvbS9nb29nbGUtY291bnRlcnN1ZXMtZXBpYy1mb3Itc2lkZXN0ZXBwaW5nLWZlZXMtb24taW4tZ2FtZS1wdXJjaGFzZXMtMDg0NjAyNjIyLmh0bWzSAW5odHRwczovL3d3dy5lbmdhZGdldC5jb20vYW1wL2dvb2dsZS1jb3VudGVyc3V"&amp;"lcy1lcGljLWZvci1zaWRlc3RlcHBpbmctZmVlcy1vbi1pbi1nYW1lLXB1cmNoYXNlcy0wODQ2MDI2MjIuaHRtbA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiamh0dHBzOi8vd3d3LmVuZ2FkZ2V0LmNvbS9nb29nbGUtY291bnRlcnN1ZXMtZXBpYy1mb3Itc2lkZXN0ZXBwaW5nLWZlZXMtb24taW4tZ2FtZS1wdXJjaGFzZXMtMDg0NjAyNjIyLmh0bWzSAW5odHRwczovL3d3dy5lbmdhZGdldC5jb20vYW1wL2dvb2dsZS1jb3VudGVyc3Vlcy1lcGljLWZvci1zaWRlc3RlcHBpbmctZmVlcy1vbi1pbi1nYW1lLXB1cmNoYXNlcy0wODQ2MDI2MjIuaHRtbA?oc=5</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Leaked video claims to show Apple Pencil 3 with a return to a glossy 
-   design  9to5Mac
-   2. Apple’s ‘Spring Loaded’ event: what to expect  The Verge
-   3. Turn on Do Not Disturb from Control Center — Apple Support  Apple 
-   Support
-   4. Ro"&amp;"undup: 5 things to expect from Apple’s 2021 iPad Pro  9to5Mac
-   5. Apple event preview, 'AirPods 3' leaks, 'iPhone 13' rumors on the 
-   AppleInsider podcast  AppleInsider
+   1. Google countersues Epic Games for sidestepping fees on in-app 
+   purchases  Engadget
+   2. Apple decides its victory against Epic wasn't enough — it wants a 
+   total win  CNBC
+   3. Apple moves to stop court-ordered App Store changes in Epic "&amp;"Games feud
+     Yahoo Finance
+   4. Apple tries to block Epic’s court win before it takes effect on 
+   December 9  Ars Technica
+   5. Apple to appeal Epic Games case, could delay App Store changes  CNBC 
+   Television
+   6. *View Full Coverage on Google "&amp;"News*
+")</f>
+        <v>
+   1. Google countersues Epic Games for sidestepping fees on in-app 
+   purchases  Engadget
+   2. Apple decides its victory against Epic wasn't enough — it wants a 
+   total win  CNBC
+   3. Apple moves to stop court-ordered App Store changes in Epic Games feud
+     Yahoo Finance
+   4. Apple tries to block Epic’s court win before it takes effect on 
+   December 9  Ars Technica
+   5. Apple to appeal Epic Games case, could delay App Store changes  CNBC 
+   Television
+   6. *View Full Coverage on Google News*
+</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Motorola Edge (2021) review: A big, unsexy smartphone - Android Police")</f>
+        <v>Motorola Edge (2021) review: A big, unsexy smartphone - Android Police</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
+        <v>Google Inc.</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiOGh0dHBzOi8vd3d3LmFuZHJvaWRwb2xpY2UuY29tL21vdG9yb2xhLWVkZ2UtMjAyMS1yZXZpZXcv0gEA?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMiOGh0dHBzOi8vd3d3LmFuZHJvaWRwb2xpY2UuY29tL21vdG9yb2xhLWVkZ2UtMjAyMS1yZXZpZXcv0gEA?oc=5</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
+   1. Motorola Edge (2021) review: A big, unsexy smartphone  Android Police
+   2. Motorola Edge (2021) review: Improvements where they matter most  
+   Engadget
+   3. Motorola Edge 5G UW review: The middle child of phones  CNET
+   4. Motorola edge (2"&amp;"021) review: The (promo) price is right  Android 
+   Central
+   5. Motorola Edge (2021) Heads to Verizon With Cheaper Price  Droid Life
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Leaked video claims to show Apple Pencil 3 with a return to a glossy 
-   design  9to5Mac
-   2. Apple’s ‘Spring Loaded’ event: what to expect  The Verge
-   3. Turn on Do Not Disturb from Control Center — Apple Support  Apple 
-   Support
-   4. Roundup: 5 things to expect from Apple’s 2021 iPad Pro  9to5Mac
-   5. Apple event preview, 'AirPods 3' leaks, 'iPhone 13' rumors on the 
-   AppleInsider podcast  AppleInsider
+   1. Motorola Edge (2021) review: A big, unsexy smartphone  Android Police
+   2. Motorola Edge (2021) review: Improvements where they matter most  
+   Engadget
+   3. Motorola Edge 5G UW review: The middle child of phones  CNET
+   4. Motorola edge (2021) review: The (promo) price is right  Android 
+   Central
+   5. Motorola Edge (2021) Heads to Verizon With Cheaper Price  Droid Life
    6. *View Full Coverage on Google News*
 </v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Apple Music Reveals How Much It Pays When You Stream a Song - The Wall Street Journal")</f>
-        <v>Apple Music Reveals How Much It Pays When You Stream a Song - The Wall Street Journal</v>
-      </c>
-      <c r="B19" s="2" t="str">
+    <row r="20">
+      <c r="A20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1Password's new feature lets you safely share passwords using just a link - Engadget")</f>
+        <v>1Password's new feature lets you safely share passwords using just a link - Engadget</v>
+      </c>
+      <c r="B20" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
         <v>Google Inc.</v>
       </c>
-      <c r="C19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiZGh0dHBzOi8vd3d3Lndzai5jb20vYXJ0aWNsZXMvYXBwbGUtbXVzaWMtcmV2ZWFscy1ob3ctbXVjaC1pdC1wYXlzLXdoZW4teW91LXN0cmVhbS1hLXNvbmctMTE2MTg1Nzk4MDDSAQA?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiZGh0dHBzOi8vd3d3Lndzai5jb20vYXJ0aWNsZXMvYXBwbGUtbXVzaWMtcmV2ZWFscy1ob3ctbXVjaC1pdC1wYXlzLXdoZW4teW91LXN0cmVhbS1hLXNvbmctMTE2MTg1Nzk4MDDSAQA?oc=5</v>
-      </c>
-      <c r="D19" s="2" t="str">
+      <c r="C20" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMibmh0dHBzOi8vd3d3LmVuZ2FkZ2V0LmNvbS8xLXBhc3N3b3Jkcy1uZXctZmVhdHVyZS13aWxsLWxldC15b3Utc2VjdXJlbHktc2hhcmUtbG9naW5zLXdpdGgtYW55b25lLTEzMDA0NDcxOS5odG1s0gFyaHR0cHM6Ly93d3cuZW5nYWRnZXQuY29tL2FtcC8xLXBhc3N3b3Jkcy1"&amp;"uZXctZmVhdHVyZS13aWxsLWxldC15b3Utc2VjdXJlbHktc2hhcmUtbG9naW5zLXdpdGgtYW55b25lLTEzMDA0NDcxOS5odG1s?oc=5")</f>
+        <v>https://news.google.com/__i/rss/rd/articles/CBMibmh0dHBzOi8vd3d3LmVuZ2FkZ2V0LmNvbS8xLXBhc3N3b3Jkcy1uZXctZmVhdHVyZS13aWxsLWxldC15b3Utc2VjdXJlbHktc2hhcmUtbG9naW5zLXdpdGgtYW55b25lLTEzMDA0NDcxOS5odG1s0gFyaHR0cHM6Ly93d3cuZW5nYWRnZXQuY29tL2FtcC8xLXBhc3N3b3Jkcy1uZXctZmVhdHVyZS13aWxsLWxldC15b3Utc2VjdXJlbHktc2hhcmUtbG9naW5zLXdpdGgtYW55b25lLTEzMDA0NDcxOS5odG1s?oc=5</v>
+      </c>
+      <c r="D20" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"
-   1. Apple Music Reveals How Much It Pays When You Stream a Song  The Wall 
-   Street Journal
-   2. Apple Music says it pays one cent per stream, roughly twice what 
-   Spotify pays  9to5Mac
-   3. Apple Music pays a penny per stream  The Verge
-   4."&amp;" Apple Music Tops Spotify With One Cent Paid Per Stream  MacRumors
-   5. Warner Music Group and Spotify strike podcast development deal  Music 
-   Business Worldwide
+   1. 1Password's new feature lets you safely share passwords using just a 
+   link  Engadget
+   2. 1Password shares new password sharing feature that Apple’s iCloud 
+   Keychain should share too  9to5Mac
+   3. Psst! Introducing item sharing in 1Pass"&amp;"word  1Password
+   4. 1Password will now let you share passwords with just a link  The Verge
+   5. 1Password unveils secure sharing tool for passwords, secrets  ZDNet
    6. *View Full Coverage on Google News*
 ")</f>
         <v>
-   1. Apple Music Reveals How Much It Pays When You Stream a Song  The Wall 
-   Street Journal
-   2. Apple Music says it pays one cent per stream, roughly twice what 
-   Spotify pays  9to5Mac
-   3. Apple Music pays a penny per stream  The Verge
-   4. Apple Music Tops Spotify With One Cent Paid Per Stream  MacRumors
-   5. Warner Music Group and Spotify strike podcast development deal  Music 
-   Business Worldwide
+   1. 1Password's new feature lets you safely share passwords using just a 
+   link  Engadget
+   2. 1Password shares new password sharing feature that Apple’s iCloud 
+   Keychain should share too  9to5Mac
+   3. Psst! Introducing item sharing in 1Password  1Password
+   4. 1Password will now let you share passwords with just a link  The Verge
+   5. 1Password unveils secure sharing tool for passwords, secrets  ZDNet
    6. *View Full Coverage on Google News*
 </v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LG G1 OLED TV review: Sets the picture quality bar just a bit higher - CNET")</f>
-        <v>LG G1 OLED TV review: Sets the picture quality bar just a bit higher - CNET</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Google Inc.")</f>
-        <v>Google Inc.</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/__i/rss/rd/articles/CBMiM2h0dHBzOi8vd3d3LmNuZXQuY29tL3Jldmlld3MvbGctb2xlZDY1ZzFwdWEtcmV2aWV3L9IBPmh0dHBzOi8vd3d3LmNuZXQuY29tL2dvb2dsZS1hbXAvcmV2aWV3cy9sZy1vbGVkNjVnMXB1YS1yZXZpZXcv?oc=5")</f>
-        <v>https://news.google.com/__i/rss/rd/articles/CBMiM2h0dHBzOi8vd3d3LmNuZXQuY29tL3Jldmlld3MvbGctb2xlZDY1ZzFwdWEtcmV2aWV3L9IBPmh0dHBzOi8vd3d3LmNuZXQuY29tL2dvb2dsZS1hbXAvcmV2aWV3cy9sZy1vbGVkNjVnMXB1YS1yZXZpZXcv?oc=5</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"LG G1 OLED TV review: Sets the picture quality bar just a bit higher  CNET*View 
-Full Coverage on Google News*")</f>
-        <v>LG G1 OLED TV review: Sets the picture quality bar just a bit higher  CNET*View 
-Full Coverage on Google News*</v>
       </c>
     </row>
   </sheetData>
@@ -14931,104 +14960,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/babobus104.podcast"")"),"WM-Quali feat. Bundesspitterin")</f>
-        <v>WM-Quali feat. Bundesspitterin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/babobus104.podcast"")"),"1LIVE Sechser - Ibizzda")</f>
+        <v>1LIVE Sechser - Ibizzda</v>
       </c>
       <c r="B1" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-wm-quali-feat-bundesspitterin-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-wm-quali-feat-bundesspitterin-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser---ibizzda-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser---ibizzda-100.html</v>
       </c>
       <c r="C1" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 27 Mar 2021 05:00:15 GMT")</f>
-        <v>Sat, 27 Mar 2021 05:00:15 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 26 Aug 2021 03:01:39 GMT")</f>
+        <v>Thu, 26 Aug 2021 03:01:39 GMT</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"© WDR 2021")</f>
+        <v>© WDR 2021</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malle wieder auf feat. MC Bohlen")</f>
-        <v>Malle wieder auf feat. MC Bohlen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LIVE Sechser:  London Forever")</f>
+        <v>1LIVE Sechser:  London Forever</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-malle-wieder-auf-feat-mc-bohlen-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-malle-wieder-auf-feat-mc-bohlen-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser--london-forever-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser--london-forever-100.html</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 20 Mar 2021 04:00:41 GMT")</f>
-        <v>Sat, 20 Mar 2021 04:00:41 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 24 Aug 2021 03:01:38 GMT")</f>
+        <v>Tue, 24 Aug 2021 03:01:38 GMT</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"© WDR 2021")</f>
+        <v>© WDR 2021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alle Korrupt feat. MC Löw")</f>
-        <v>Alle Korrupt feat. MC Löw</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LIVE Sechser - Schweden? Auf jeden!")</f>
+        <v>1LIVE Sechser - Schweden? Auf jeden!</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-alle-korrupt-feat-mc-loew-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-alle-korrupt-feat-mc-loew-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser---schweden-auf-jeden-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser---schweden-auf-jeden-100.html</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 13 Mar 2021 04:00:48 GMT")</f>
-        <v>Sat, 13 Mar 2021 04:00:48 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 20 Aug 2021 03:00:03 GMT")</f>
+        <v>Fri, 20 Aug 2021 03:00:03 GMT</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"© WDR 2021")</f>
+        <v>© WDR 2021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Frische Friese feat. Mälzer MC")</f>
-        <v>Frische Friese feat. Mälzer MC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LIVE Sechser: Ötztal United")</f>
+        <v>1LIVE Sechser: Ötztal United</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-frische-friese-feat-maelzer-mc-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-frische-friese-feat-maelzer-mc-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser-oetztal-united-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-live-sechser-oetztal-united-100.html</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 06 Mar 2021 04:00:58 GMT")</f>
-        <v>Sat, 06 Mar 2021 04:00:58 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 16 Aug 2021 03:00:49 GMT")</f>
+        <v>Mon, 16 Aug 2021 03:00:49 GMT</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"© WDR 2021")</f>
+        <v>© WDR 2021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marsrover feat. MC Gonzalez")</f>
-        <v>Marsrover feat. MC Gonzalez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#Wiegehtsdir")</f>
+        <v>#Wiegehtsdir</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-marsrover-feat-mc-gonzalez-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-marsrover-feat-mc-gonzalez-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-wiegehtsdir-102.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-wiegehtsdir-102.html</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 27 Feb 2021 04:00:50 GMT")</f>
-        <v>Sat, 27 Feb 2021 04:00:50 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wed, 05 May 2021 03:00:20 GMT")</f>
+        <v>Wed, 05 May 2021 03:00:20 GMT</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15041,16 +15054,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1KEBEKUS")</f>
-        <v>1KEBEKUS</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"WM-Quali feat. Bundesspitterin")</f>
+        <v>WM-Quali feat. Bundesspitterin</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-kebekus-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-kebekus-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-wm-quali-feat-bundesspitterin-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-wm-quali-feat-bundesspitterin-100.html</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 22 Feb 2021 04:00:15 GMT")</f>
-        <v>Mon, 22 Feb 2021 04:00:15 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 27 Mar 2021 05:00:15 GMT")</f>
+        <v>Sat, 27 Mar 2021 05:00:15 GMT</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15063,16 +15076,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JandealyDay feat. The Masked Lauterbach")</f>
-        <v>JandealyDay feat. The Masked Lauterbach</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Malle wieder auf feat. MC Bohlen")</f>
+        <v>Malle wieder auf feat. MC Bohlen</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-jandealyday-feat-the-masked-lauterbach-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-jandealyday-feat-the-masked-lauterbach-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-malle-wieder-auf-feat-mc-bohlen-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-malle-wieder-auf-feat-mc-bohlen-100.html</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 20 Feb 2021 04:00:00 GMT")</f>
-        <v>Sat, 20 Feb 2021 04:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 20 Mar 2021 04:00:41 GMT")</f>
+        <v>Sat, 20 Mar 2021 04:00:41 GMT</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15085,16 +15098,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LUKE")</f>
-        <v>1LUKE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alle Korrupt feat. MC Löw")</f>
+        <v>Alle Korrupt feat. MC Löw</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-luke-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-luke-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-alle-korrupt-feat-mc-loew-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-alle-korrupt-feat-mc-loew-100.html</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 15 Feb 2021 04:00:16 GMT")</f>
-        <v>Mon, 15 Feb 2021 04:00:16 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 13 Mar 2021 04:00:48 GMT")</f>
+        <v>Sat, 13 Mar 2021 04:00:48 GMT</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15107,16 +15120,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Valentinstag feat. Carmen Geiss")</f>
-        <v>Valentinstag feat. Carmen Geiss</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Frische Friese feat. Mälzer MC")</f>
+        <v>Frische Friese feat. Mälzer MC</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-valentinstag-feat-carmen-geiss-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-valentinstag-feat-carmen-geiss-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-frische-friese-feat-maelzer-mc-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-frische-friese-feat-maelzer-mc-100.html</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 13 Feb 2021 04:00:47 GMT")</f>
-        <v>Sat, 13 Feb 2021 04:00:47 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 06 Mar 2021 04:00:58 GMT")</f>
+        <v>Sat, 06 Mar 2021 04:00:58 GMT</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15129,16 +15142,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LOBRECHT")</f>
-        <v>1LOBRECHT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Marsrover feat. MC Gonzalez")</f>
+        <v>Marsrover feat. MC Gonzalez</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-lobrecht-102.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-lobrecht-102.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-marsrover-feat-mc-gonzalez-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-marsrover-feat-mc-gonzalez-100.html</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 11 Feb 2021 04:00:43 GMT")</f>
-        <v>Thu, 11 Feb 2021 04:00:43 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 27 Feb 2021 04:00:50 GMT")</f>
+        <v>Sat, 27 Feb 2021 04:00:50 GMT</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15151,16 +15164,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Übernahme")</f>
-        <v>Übernahme</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1KEBEKUS")</f>
+        <v>1KEBEKUS</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-uebernahme-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-uebernahme-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-kebekus-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-kebekus-100.html</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 08 Feb 2021 04:00:17 GMT")</f>
-        <v>Mon, 08 Feb 2021 04:00:17 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 22 Feb 2021 04:00:15 GMT")</f>
+        <v>Mon, 22 Feb 2021 04:00:15 GMT</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15173,16 +15186,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Schwesta Ewa ist frei feat. JogiMC")</f>
-        <v>Schwesta Ewa ist frei feat. JogiMC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JandealyDay feat. The Masked Lauterbach")</f>
+        <v>JandealyDay feat. The Masked Lauterbach</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-schwesta-ewa-ist-frei-feat-jogimc-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-schwesta-ewa-ist-frei-feat-jogimc-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-jandealyday-feat-the-masked-lauterbach-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-jandealyday-feat-the-masked-lauterbach-100.html</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 06 Feb 2021 04:00:45 GMT")</f>
-        <v>Sat, 06 Feb 2021 04:00:45 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 20 Feb 2021 04:00:00 GMT")</f>
+        <v>Sat, 20 Feb 2021 04:00:00 GMT</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15195,18 +15208,128 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LUKE")</f>
+        <v>1LUKE</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-luke-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-luke-100.html</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 15 Feb 2021 04:00:16 GMT")</f>
+        <v>Mon, 15 Feb 2021 04:00:16 GMT</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?")</f>
+        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Valentinstag feat. Carmen Geiss")</f>
+        <v>Valentinstag feat. Carmen Geiss</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-valentinstag-feat-carmen-geiss-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-valentinstag-feat-carmen-geiss-100.html</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 13 Feb 2021 04:00:47 GMT")</f>
+        <v>Sat, 13 Feb 2021 04:00:47 GMT</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?")</f>
+        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1LOBRECHT")</f>
+        <v>1LOBRECHT</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-lobrecht-102.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-lobrecht-102.html</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 11 Feb 2021 04:00:43 GMT")</f>
+        <v>Thu, 11 Feb 2021 04:00:43 GMT</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?")</f>
+        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Übernahme")</f>
+        <v>Übernahme</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-uebernahme-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-uebernahme-100.html</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 08 Feb 2021 04:00:17 GMT")</f>
+        <v>Mon, 08 Feb 2021 04:00:17 GMT</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?")</f>
+        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Schwesta Ewa ist frei feat. JogiMC")</f>
+        <v>Schwesta Ewa ist frei feat. JogiMC</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-schwesta-ewa-ist-frei-feat-jogimc-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-schwesta-ewa-ist-frei-feat-jogimc-100.html</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 06 Feb 2021 04:00:45 GMT")</f>
+        <v>Sat, 06 Feb 2021 04:00:45 GMT</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?")</f>
+        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
+Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
+zum Beispiel die Toilette im Tourbus verstopft?</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Keine Einigung im Streit um das Lieferkettengesetz")</f>
         <v>Keine Einigung im Streit um das Lieferkettengesetz</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-keine-einigung-im-streit-um-das-lieferkettengesetz-100.html")</f>
         <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-keine-einigung-im-streit-um-das-lieferkettengesetz-100.html</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 05 Feb 2021 17:05:29 GMT")</f>
         <v>Fri, 05 Feb 2021 17:05:29 GMT</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Beim geplanten Lieferkettengesetz geht’s grundsätzlich darum, deutsche 
 Unternehmen dazu zu verpflichten, die Einhaltung von Menschenrechten und 
 Umweltstandards auch bei ausländischen Zulieferern zu garantieren. Trotz 
@@ -15219,128 +15342,18 @@
 WDR-Wirtschaftsredaktion.</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="str">
+    <row r="19">
+      <c r="A19" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Impfstoff-Probleme feat. MC Greatcross")</f>
         <v>Impfstoff-Probleme feat. MC Greatcross</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-impfstoff-probleme-feat-mc-greatcross-100.html")</f>
         <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-impfstoff-probleme-feat-mc-greatcross-100.html</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C19" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 30 Jan 2021 05:01:14 GMT")</f>
         <v>Sat, 30 Jan 2021 05:01:14 GMT</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Clubhouse-Hausverbot feat. King Mälzer")</f>
-        <v>Clubhouse-Hausverbot feat. King Mälzer</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-clubhouse-hausverbot-feat-king-maelzer-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-clubhouse-hausverbot-feat-king-maelzer-100.html</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 23 Jan 2021 04:01:40 GMT")</f>
-        <v>Sat, 23 Jan 2021 04:01:40 GMT</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Netflix and the City feat. MC Louderbach")</f>
-        <v>Netflix and the City feat. MC Louderbach</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-netflix-and-the-city-feat-mc-louderbach-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-netflix-and-the-city-feat-mc-louderbach-100.html</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 16 Jan 2021 04:00:31 GMT")</f>
-        <v>Sat, 16 Jan 2021 04:00:31 GMT</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bergwerkschächte werden verfüllt und warum Fliegen schnell sind")</f>
-        <v>Bergwerkschächte werden verfüllt und warum Fliegen schnell sind</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-bergwerkschaechte-werden-verfuellt-und-warum-fliegen-schnell-sind-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-bergwerkschaechte-werden-verfuellt-und-warum-fliegen-schnell-sind-100.html</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 14 Jan 2021 16:39:06 GMT")</f>
-        <v>Thu, 14 Jan 2021 16:39:06 GMT</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Bergwerk in Ibbenbüren werden weitere Schächte mit Beton ausgegossen, in 
-Indonesien wurde die ältesteTierzeichnung der Welt entdeckt, Fliegen haben 
-ein Halfter und der FC Bayern München fliegt aus dem DFB-Pokal.")</f>
-        <v>Im Bergwerk in Ibbenbüren werden weitere Schächte mit Beton ausgegossen, in 
-Indonesien wurde die ältesteTierzeichnung der Welt entdeckt, Fliegen haben 
-ein Halfter und der FC Bayern München fliegt aus dem DFB-Pokal.</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scheidung feat. DJ Bobo")</f>
-        <v>Scheidung feat. DJ Bobo</v>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-scheidung-feat-dj-bobo-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-scheidung-feat-dj-bobo-100.html</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 09 Jan 2021 05:00:05 GMT")</f>
-        <v>Sat, 09 Jan 2021 05:00:05 GMT</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?")</f>
-        <v>Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
-Marteria durch den Sektor und bestehen gemeinsam brisante Aufgaben: Wer hat 
-zum Beispiel die Toilette im Tourbus verstopft?</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fette Vorsätze feat. Bad Boris")</f>
-        <v>Fette Vorsätze feat. Bad Boris</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-fette-vorsaetze-feat-bad-boris-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-fette-vorsaetze-feat-bad-boris-100.html</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 02 Jan 2021 04:01:40 GMT")</f>
-        <v>Sat, 02 Jan 2021 04:01:40 GMT</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
@@ -15353,16 +15366,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Happy Haftiday feat. Mighty Merkel")</f>
-        <v>Happy Haftiday feat. Mighty Merkel</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Clubhouse-Hausverbot feat. King Mälzer")</f>
+        <v>Clubhouse-Hausverbot feat. King Mälzer</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-happy-haftiday-feat-mighty-merkel-100.html")</f>
-        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-happy-haftiday-feat-mighty-merkel-100.html</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-clubhouse-hausverbot-feat-king-maelzer-100.html")</f>
+        <v>https://www1.wdr.de/mediathek/audio/1live/1live-babo-bus/audio-clubhouse-hausverbot-feat-king-maelzer-100.html</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 19 Dec 2020 04:00:25 GMT")</f>
-        <v>Sat, 19 Dec 2020 04:00:25 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sat, 23 Jan 2021 04:01:40 GMT")</f>
+        <v>Sat, 23 Jan 2021 04:01:40 GMT</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Im Babo-Bus fahren die schweren Jungs Kollegah, Sido, Haftbefehl und 
